--- a/src/main/webapp/WEB-INF/dataBaseFile/data/cucuif_data.xlsx
+++ b/src/main/webapp/WEB-INF/dataBaseFile/data/cucuif_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="20415" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="20415" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>INSERT INTO CUMNIF VALUES('root','4813494d137e1631bba301d5acab6e7bb7aa74ce1185d456565ef51d737677b2','시스템관리자')</t>
+    <t>INSERT INTO CUCUIF VALUES('root','4813494d137e1631bba301d5acab6e7bb7aa74ce1185d456565ef51d737677b2','시스템관리자')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
